--- a/assets/Образец.xlsx
+++ b/assets/Образец.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Игорь\WebstormProjects\synchroreg\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20892F2-C55F-43B9-98FF-D5135835FBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2521558A-EFED-4074-B86A-D8243874D294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
   <si>
     <t>ТЕХНИЧЕСКАЯ ЗАЯВКА</t>
   </si>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>Первая</t>
+  </si>
+  <si>
+    <t>Гатчина</t>
+  </si>
+  <si>
+    <t>Тосно</t>
+  </si>
+  <si>
+    <t>Сборная Ленмнградской области</t>
   </si>
 </sst>
 </file>
@@ -1204,6 +1213,204 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1243,22 +1450,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1302,10 +1493,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1315,184 +1502,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1835,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52:S52"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1897,72 +1906,74 @@
       <c r="B7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
+      <c r="C7" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="57" t="s">
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="62" t="s">
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="55" t="s">
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="110" t="s">
+      <c r="T9" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="52" t="s">
+      <c r="U9" s="109" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="28" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="76"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="39" t="s">
         <v>10</v>
       </c>
@@ -2005,50 +2016,52 @@
       <c r="R10" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="S10" s="56"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="53"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="110"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>1</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="113">
+      <c r="C11" s="53">
         <v>2010</v>
       </c>
-      <c r="D11" s="114" t="s">
+      <c r="D11" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="119" t="s">
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119" t="s">
+      <c r="K11" s="59"/>
+      <c r="L11" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119" t="s">
+      <c r="M11" s="59"/>
+      <c r="N11" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="120"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="133" t="s">
+      <c r="O11" s="60"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="136"/>
-      <c r="U11" s="123" t="s">
+      <c r="T11" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="U11" s="63" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2056,40 +2069,42 @@
       <c r="A12" s="29">
         <v>2</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="113">
+      <c r="C12" s="53">
         <v>2010</v>
       </c>
-      <c r="D12" s="114" t="s">
+      <c r="D12" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="124" t="s">
+      <c r="E12" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128" t="s">
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128" t="s">
+      <c r="M12" s="68"/>
+      <c r="N12" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="129"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="131"/>
-      <c r="S12" s="134" t="s">
+      <c r="O12" s="69"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="137"/>
-      <c r="U12" s="132" t="s">
+      <c r="T12" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="U12" s="72" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2097,40 +2112,42 @@
       <c r="A13" s="29">
         <v>3</v>
       </c>
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="113">
+      <c r="C13" s="53">
         <v>2010</v>
       </c>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="124" t="s">
+      <c r="E13" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128" t="s">
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="128"/>
-      <c r="N13" s="128" t="s">
+      <c r="M13" s="68"/>
+      <c r="N13" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="129"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="131"/>
-      <c r="S13" s="134" t="s">
+      <c r="O13" s="69"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="T13" s="137"/>
-      <c r="U13" s="132" t="s">
+      <c r="T13" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="U13" s="72" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2138,38 +2155,40 @@
       <c r="A14" s="29">
         <v>4</v>
       </c>
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="113">
+      <c r="C14" s="53">
         <v>2011</v>
       </c>
-      <c r="D14" s="114" t="s">
+      <c r="D14" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="124" t="s">
+      <c r="E14" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128" t="s">
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="131"/>
-      <c r="S14" s="134" t="s">
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="T14" s="137"/>
-      <c r="U14" s="132" t="s">
+      <c r="T14" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="U14" s="72" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2177,44 +2196,46 @@
       <c r="A15" s="29">
         <v>5</v>
       </c>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="113">
+      <c r="C15" s="53">
         <v>2011</v>
       </c>
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="124" t="s">
+      <c r="E15" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127" t="s">
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128" t="s">
+      <c r="J15" s="68"/>
+      <c r="K15" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="128" t="s">
+      <c r="L15" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128" t="s">
+      <c r="M15" s="68"/>
+      <c r="N15" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="129"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="131"/>
-      <c r="S15" s="134" t="s">
+      <c r="O15" s="69"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="T15" s="137"/>
-      <c r="U15" s="132" t="s">
+      <c r="T15" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="U15" s="72" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2222,40 +2243,42 @@
       <c r="A16" s="29">
         <v>6</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="113">
+      <c r="C16" s="53">
         <v>2010</v>
       </c>
-      <c r="D16" s="114" t="s">
+      <c r="D16" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="124" t="s">
+      <c r="E16" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128" t="s">
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128" t="s">
+      <c r="M16" s="68"/>
+      <c r="N16" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="129"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="131"/>
-      <c r="S16" s="134" t="s">
+      <c r="O16" s="69"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="T16" s="137"/>
-      <c r="U16" s="132" t="s">
+      <c r="T16" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="U16" s="72" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2263,44 +2286,46 @@
       <c r="A17" s="29">
         <v>7</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="113">
+      <c r="C17" s="53">
         <v>2011</v>
       </c>
-      <c r="D17" s="114" t="s">
+      <c r="D17" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="124" t="s">
+      <c r="E17" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="127" t="s">
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="128" t="s">
+      <c r="J17" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128" t="s">
+      <c r="K17" s="68"/>
+      <c r="L17" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128" t="s">
+      <c r="M17" s="68"/>
+      <c r="N17" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="129"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="134" t="s">
+      <c r="O17" s="69"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="T17" s="137"/>
-      <c r="U17" s="132" t="s">
+      <c r="T17" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="U17" s="72" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2308,42 +2333,44 @@
       <c r="A18" s="29">
         <v>8</v>
       </c>
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="113">
+      <c r="C18" s="53">
         <v>2010</v>
       </c>
-      <c r="D18" s="114" t="s">
+      <c r="D18" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="124" t="s">
+      <c r="E18" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="128" t="s">
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="128"/>
-      <c r="L18" s="128" t="s">
+      <c r="K18" s="68"/>
+      <c r="L18" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="M18" s="128"/>
-      <c r="N18" s="128" t="s">
+      <c r="M18" s="68"/>
+      <c r="N18" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="129"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="130"/>
-      <c r="R18" s="131"/>
-      <c r="S18" s="134" t="s">
+      <c r="O18" s="69"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="T18" s="137"/>
-      <c r="U18" s="132" t="s">
+      <c r="T18" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="U18" s="72" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2351,40 +2378,42 @@
       <c r="A19" s="29">
         <v>9</v>
       </c>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="113">
+      <c r="C19" s="53">
         <v>2011</v>
       </c>
-      <c r="D19" s="114" t="s">
+      <c r="D19" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="124" t="s">
+      <c r="E19" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128" t="s">
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="128"/>
-      <c r="N19" s="128" t="s">
+      <c r="M19" s="68"/>
+      <c r="N19" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="129"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="130"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="134" t="s">
+      <c r="O19" s="69"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="T19" s="137"/>
-      <c r="U19" s="132" t="s">
+      <c r="T19" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="U19" s="72" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2392,42 +2421,44 @@
       <c r="A20" s="29">
         <v>10</v>
       </c>
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="113">
+      <c r="C20" s="53">
         <v>2011</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="124" t="s">
+      <c r="E20" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="128" t="s">
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="128"/>
-      <c r="L20" s="128" t="s">
+      <c r="K20" s="68"/>
+      <c r="L20" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="M20" s="128"/>
-      <c r="N20" s="128" t="s">
+      <c r="M20" s="68"/>
+      <c r="N20" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="129"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="130"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="134" t="s">
+      <c r="O20" s="69"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="T20" s="137"/>
-      <c r="U20" s="132" t="s">
+      <c r="T20" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="U20" s="72" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2435,42 +2466,44 @@
       <c r="A21" s="29">
         <v>11</v>
       </c>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="113">
+      <c r="C21" s="53">
         <v>2010</v>
       </c>
-      <c r="D21" s="114" t="s">
+      <c r="D21" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="124" t="s">
+      <c r="E21" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="128" t="s">
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128" t="s">
+      <c r="K21" s="68"/>
+      <c r="L21" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128" t="s">
+      <c r="M21" s="68"/>
+      <c r="N21" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="O21" s="129"/>
-      <c r="P21" s="130"/>
-      <c r="Q21" s="130"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="134" t="s">
+      <c r="O21" s="69"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="T21" s="137"/>
-      <c r="U21" s="132" t="s">
+      <c r="T21" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="U21" s="72" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2478,40 +2511,42 @@
       <c r="A22" s="29">
         <v>12</v>
       </c>
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="113">
+      <c r="C22" s="53">
         <v>2010</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="124" t="s">
+      <c r="E22" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128" t="s">
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128" t="s">
+      <c r="M22" s="68"/>
+      <c r="N22" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="O22" s="129"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="134" t="s">
+      <c r="O22" s="69"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="T22" s="137"/>
-      <c r="U22" s="132" t="s">
+      <c r="T22" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="U22" s="72" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2536,8 +2571,8 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="48"/>
-      <c r="S23" s="134"/>
-      <c r="T23" s="137"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="77"/>
       <c r="U23" s="50"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2561,8 +2596,8 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="48"/>
-      <c r="S24" s="134"/>
-      <c r="T24" s="137"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="77"/>
       <c r="U24" s="50"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2586,8 +2621,8 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="48"/>
-      <c r="S25" s="134"/>
-      <c r="T25" s="137"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="77"/>
       <c r="U25" s="50"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -2611,8 +2646,8 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="48"/>
-      <c r="S26" s="134"/>
-      <c r="T26" s="137"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="77"/>
       <c r="U26" s="50"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -2636,8 +2671,8 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="48"/>
-      <c r="S27" s="134"/>
-      <c r="T27" s="137"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="77"/>
       <c r="U27" s="50"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -2661,8 +2696,8 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="48"/>
-      <c r="S28" s="134"/>
-      <c r="T28" s="137"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="77"/>
       <c r="U28" s="50"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -2686,8 +2721,8 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="48"/>
-      <c r="S29" s="134"/>
-      <c r="T29" s="137"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="77"/>
       <c r="U29" s="50"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -2711,8 +2746,8 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="48"/>
-      <c r="S30" s="134"/>
-      <c r="T30" s="137"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="77"/>
       <c r="U30" s="50"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -2736,8 +2771,8 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="48"/>
-      <c r="S31" s="134"/>
-      <c r="T31" s="137"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="77"/>
       <c r="U31" s="50"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -2761,8 +2796,8 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="48"/>
-      <c r="S32" s="134"/>
-      <c r="T32" s="137"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="77"/>
       <c r="U32" s="50"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -2786,8 +2821,8 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="48"/>
-      <c r="S33" s="134"/>
-      <c r="T33" s="137"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="77"/>
       <c r="U33" s="50"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -2811,8 +2846,8 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="48"/>
-      <c r="S34" s="134"/>
-      <c r="T34" s="137"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="77"/>
       <c r="U34" s="50"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -2836,8 +2871,8 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="48"/>
-      <c r="S35" s="134"/>
-      <c r="T35" s="137"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="77"/>
       <c r="U35" s="50"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -2861,8 +2896,8 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="48"/>
-      <c r="S36" s="134"/>
-      <c r="T36" s="137"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="77"/>
       <c r="U36" s="50"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -2886,8 +2921,8 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="48"/>
-      <c r="S37" s="134"/>
-      <c r="T37" s="137"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="77"/>
       <c r="U37" s="50"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -2911,8 +2946,8 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="48"/>
-      <c r="S38" s="134"/>
-      <c r="T38" s="137"/>
+      <c r="S38" s="74"/>
+      <c r="T38" s="77"/>
       <c r="U38" s="50"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -2936,8 +2971,8 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="48"/>
-      <c r="S39" s="134"/>
-      <c r="T39" s="137"/>
+      <c r="S39" s="74"/>
+      <c r="T39" s="77"/>
       <c r="U39" s="50"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -2961,8 +2996,8 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="48"/>
-      <c r="S40" s="134"/>
-      <c r="T40" s="137"/>
+      <c r="S40" s="74"/>
+      <c r="T40" s="77"/>
       <c r="U40" s="50"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -2986,8 +3021,8 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
       <c r="R41" s="48"/>
-      <c r="S41" s="134"/>
-      <c r="T41" s="137"/>
+      <c r="S41" s="74"/>
+      <c r="T41" s="77"/>
       <c r="U41" s="50"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -3011,8 +3046,8 @@
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="48"/>
-      <c r="S42" s="134"/>
-      <c r="T42" s="137"/>
+      <c r="S42" s="74"/>
+      <c r="T42" s="77"/>
       <c r="U42" s="50"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -3036,8 +3071,8 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="48"/>
-      <c r="S43" s="134"/>
-      <c r="T43" s="137"/>
+      <c r="S43" s="74"/>
+      <c r="T43" s="77"/>
       <c r="U43" s="50"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -3061,8 +3096,8 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="48"/>
-      <c r="S44" s="134"/>
-      <c r="T44" s="137"/>
+      <c r="S44" s="74"/>
+      <c r="T44" s="77"/>
       <c r="U44" s="50"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -3086,8 +3121,8 @@
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="48"/>
-      <c r="S45" s="134"/>
-      <c r="T45" s="137"/>
+      <c r="S45" s="74"/>
+      <c r="T45" s="77"/>
       <c r="U45" s="50"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -3111,8 +3146,8 @@
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="48"/>
-      <c r="S46" s="134"/>
-      <c r="T46" s="137"/>
+      <c r="S46" s="74"/>
+      <c r="T46" s="77"/>
       <c r="U46" s="50"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -3136,8 +3171,8 @@
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="48"/>
-      <c r="S47" s="134"/>
-      <c r="T47" s="137"/>
+      <c r="S47" s="74"/>
+      <c r="T47" s="77"/>
       <c r="U47" s="50"/>
     </row>
     <row r="48" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3161,8 +3196,8 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="49"/>
-      <c r="S48" s="135"/>
-      <c r="T48" s="138"/>
+      <c r="S48" s="75"/>
+      <c r="T48" s="78"/>
       <c r="U48" s="51"/>
     </row>
     <row r="49" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3170,256 +3205,256 @@
     </row>
     <row r="50" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
-      <c r="B50" s="80" t="s">
+      <c r="B50" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="81"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="60" t="s">
+      <c r="C50" s="134"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="60" t="s">
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="I50" s="61"/>
-      <c r="J50" s="84" t="s">
+      <c r="I50" s="118"/>
+      <c r="J50" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="K50" s="84"/>
-      <c r="L50" s="60" t="s">
+      <c r="K50" s="136"/>
+      <c r="L50" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="103" t="s">
+      <c r="M50" s="136"/>
+      <c r="N50" s="136"/>
+      <c r="O50" s="136"/>
+      <c r="P50" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="Q50" s="104"/>
-      <c r="R50" s="104"/>
-      <c r="S50" s="105"/>
-      <c r="T50" s="101" t="s">
+      <c r="Q50" s="84"/>
+      <c r="R50" s="84"/>
+      <c r="S50" s="85"/>
+      <c r="T50" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="U50" s="102"/>
+      <c r="U50" s="82"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>1</v>
       </c>
-      <c r="B51" s="87" t="s">
+      <c r="B51" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="88"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="85" t="s">
+      <c r="C51" s="100"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="87" t="s">
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="I51" s="92"/>
-      <c r="J51" s="88" t="s">
+      <c r="I51" s="97"/>
+      <c r="J51" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="K51" s="92"/>
-      <c r="L51" s="87" t="s">
+      <c r="K51" s="97"/>
+      <c r="L51" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="106"/>
-      <c r="Q51" s="107"/>
-      <c r="R51" s="107"/>
-      <c r="S51" s="108"/>
-      <c r="T51" s="109"/>
-      <c r="U51" s="108"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="100"/>
+      <c r="O51" s="100"/>
+      <c r="P51" s="86"/>
+      <c r="Q51" s="87"/>
+      <c r="R51" s="87"/>
+      <c r="S51" s="88"/>
+      <c r="T51" s="92"/>
+      <c r="U51" s="88"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="36">
         <v>2</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="83"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="83" t="s">
+      <c r="C52" s="93"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="99"/>
+      <c r="J52" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="K52" s="66"/>
-      <c r="L52" s="65" t="s">
+      <c r="K52" s="99"/>
+      <c r="L52" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="M52" s="83"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="83"/>
-      <c r="P52" s="96"/>
-      <c r="Q52" s="97"/>
-      <c r="R52" s="97"/>
-      <c r="S52" s="98"/>
-      <c r="T52" s="83"/>
-      <c r="U52" s="98"/>
+      <c r="M52" s="93"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="93"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="90"/>
+      <c r="R52" s="90"/>
+      <c r="S52" s="91"/>
+      <c r="T52" s="93"/>
+      <c r="U52" s="91"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="36">
         <v>3</v>
       </c>
-      <c r="B53" s="65"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="65"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="83"/>
-      <c r="P53" s="96"/>
-      <c r="Q53" s="97"/>
-      <c r="R53" s="97"/>
-      <c r="S53" s="98"/>
-      <c r="T53" s="83"/>
-      <c r="U53" s="98"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="99"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="93"/>
+      <c r="N53" s="93"/>
+      <c r="O53" s="93"/>
+      <c r="P53" s="89"/>
+      <c r="Q53" s="90"/>
+      <c r="R53" s="90"/>
+      <c r="S53" s="91"/>
+      <c r="T53" s="93"/>
+      <c r="U53" s="91"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="36">
         <v>4</v>
       </c>
-      <c r="B54" s="65"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="83"/>
-      <c r="N54" s="83"/>
-      <c r="O54" s="83"/>
-      <c r="P54" s="96"/>
-      <c r="Q54" s="97"/>
-      <c r="R54" s="97"/>
-      <c r="S54" s="98"/>
-      <c r="T54" s="83"/>
-      <c r="U54" s="98"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="93"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="98"/>
+      <c r="M54" s="93"/>
+      <c r="N54" s="93"/>
+      <c r="O54" s="93"/>
+      <c r="P54" s="89"/>
+      <c r="Q54" s="90"/>
+      <c r="R54" s="90"/>
+      <c r="S54" s="91"/>
+      <c r="T54" s="93"/>
+      <c r="U54" s="91"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="36">
         <v>5</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="96"/>
-      <c r="Q55" s="97"/>
-      <c r="R55" s="97"/>
-      <c r="S55" s="98"/>
-      <c r="T55" s="83"/>
-      <c r="U55" s="98"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="98"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="98"/>
+      <c r="M55" s="93"/>
+      <c r="N55" s="93"/>
+      <c r="O55" s="93"/>
+      <c r="P55" s="89"/>
+      <c r="Q55" s="90"/>
+      <c r="R55" s="90"/>
+      <c r="S55" s="91"/>
+      <c r="T55" s="93"/>
+      <c r="U55" s="91"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="36">
         <v>6</v>
       </c>
-      <c r="B56" s="65"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="65"/>
-      <c r="M56" s="83"/>
-      <c r="N56" s="83"/>
-      <c r="O56" s="83"/>
-      <c r="P56" s="96"/>
-      <c r="Q56" s="97"/>
-      <c r="R56" s="97"/>
-      <c r="S56" s="98"/>
-      <c r="T56" s="83"/>
-      <c r="U56" s="98"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="98"/>
+      <c r="I56" s="99"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="98"/>
+      <c r="M56" s="93"/>
+      <c r="N56" s="93"/>
+      <c r="O56" s="93"/>
+      <c r="P56" s="89"/>
+      <c r="Q56" s="90"/>
+      <c r="R56" s="90"/>
+      <c r="S56" s="91"/>
+      <c r="T56" s="93"/>
+      <c r="U56" s="91"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="36">
         <v>7</v>
       </c>
-      <c r="B57" s="65"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="66"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="83"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="83"/>
-      <c r="P57" s="96"/>
-      <c r="Q57" s="97"/>
-      <c r="R57" s="97"/>
-      <c r="S57" s="98"/>
-      <c r="T57" s="83"/>
-      <c r="U57" s="98"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="98"/>
+      <c r="I57" s="99"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="99"/>
+      <c r="L57" s="98"/>
+      <c r="M57" s="93"/>
+      <c r="N57" s="93"/>
+      <c r="O57" s="93"/>
+      <c r="P57" s="89"/>
+      <c r="Q57" s="90"/>
+      <c r="R57" s="90"/>
+      <c r="S57" s="91"/>
+      <c r="T57" s="93"/>
+      <c r="U57" s="91"/>
     </row>
     <row r="58" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="37">
         <v>8</v>
       </c>
-      <c r="B58" s="89"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="91"/>
-      <c r="J58" s="90"/>
-      <c r="K58" s="91"/>
-      <c r="L58" s="89"/>
-      <c r="M58" s="90"/>
-      <c r="N58" s="90"/>
-      <c r="O58" s="90"/>
-      <c r="P58" s="99"/>
-      <c r="Q58" s="100"/>
-      <c r="R58" s="100"/>
-      <c r="S58" s="95"/>
-      <c r="T58" s="90"/>
-      <c r="U58" s="95"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="95"/>
+      <c r="J58" s="94"/>
+      <c r="K58" s="95"/>
+      <c r="L58" s="104"/>
+      <c r="M58" s="94"/>
+      <c r="N58" s="94"/>
+      <c r="O58" s="94"/>
+      <c r="P58" s="102"/>
+      <c r="Q58" s="103"/>
+      <c r="R58" s="103"/>
+      <c r="S58" s="101"/>
+      <c r="T58" s="94"/>
+      <c r="U58" s="101"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
@@ -3498,22 +3533,63 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="74">
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="C7:R7"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="J51:K51"/>
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="J53:K53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="J58:K58"/>
     <mergeCell ref="T58:U58"/>
     <mergeCell ref="P54:S54"/>
     <mergeCell ref="P55:S55"/>
@@ -3525,53 +3601,12 @@
     <mergeCell ref="T56:U56"/>
     <mergeCell ref="T57:U57"/>
     <mergeCell ref="L51:O51"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L56:O56"/>
-    <mergeCell ref="L57:O57"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="P52:S52"/>
     <mergeCell ref="U9:U10"/>
-    <mergeCell ref="C7:R7"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations xWindow="727" yWindow="303" count="17">

--- a/assets/Образец.xlsx
+++ b/assets/Образец.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Игорь\WebstormProjects\synchroreg\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2521558A-EFED-4074-B86A-D8243874D294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9257AB0C-E842-4F69-854F-A5C73A5AA707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1844,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:R7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/assets/Образец.xlsx
+++ b/assets/Образец.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Игорь\WebstormProjects\synchroreg\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9257AB0C-E842-4F69-854F-A5C73A5AA707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1212D95B-249F-4E63-B55E-8842D43C877E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
   <si>
     <t>ТЕХНИЧЕСКАЯ ЗАЯВКА</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>б/к</t>
-  </si>
-  <si>
-    <t>Первая</t>
   </si>
   <si>
     <t>Гатчина</t>
@@ -1343,79 +1340,79 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1449,39 +1446,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1503,6 +1467,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1844,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:O52"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52:O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1907,7 +1904,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="111" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="111"/>
       <c r="E7" s="111"/>
@@ -1927,24 +1924,24 @@
     </row>
     <row r="8" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="128" t="s">
+      <c r="D9" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="130" t="s">
+      <c r="E9" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="132"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="138"/>
       <c r="I9" s="114" t="s">
         <v>14</v>
       </c>
@@ -1965,15 +1962,15 @@
       <c r="T9" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="109" t="s">
+      <c r="U9" s="92" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="28" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="123"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="129"/>
+      <c r="A10" s="129"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="135"/>
       <c r="E10" s="39" t="s">
         <v>10</v>
       </c>
@@ -2018,7 +2015,7 @@
       </c>
       <c r="S10" s="113"/>
       <c r="T10" s="80"/>
-      <c r="U10" s="110"/>
+      <c r="U10" s="93"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
@@ -2059,7 +2056,7 @@
         <v>42</v>
       </c>
       <c r="T11" s="76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U11" s="63" t="s">
         <v>43</v>
@@ -2102,7 +2099,7 @@
         <v>46</v>
       </c>
       <c r="T12" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U12" s="72" t="s">
         <v>43</v>
@@ -2145,7 +2142,7 @@
         <v>42</v>
       </c>
       <c r="T13" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U13" s="72" t="s">
         <v>43</v>
@@ -2186,7 +2183,7 @@
         <v>46</v>
       </c>
       <c r="T14" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U14" s="72" t="s">
         <v>43</v>
@@ -2233,7 +2230,7 @@
         <v>46</v>
       </c>
       <c r="T15" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U15" s="72" t="s">
         <v>43</v>
@@ -2276,7 +2273,7 @@
         <v>42</v>
       </c>
       <c r="T16" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U16" s="72" t="s">
         <v>43</v>
@@ -2323,7 +2320,7 @@
         <v>46</v>
       </c>
       <c r="T17" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U17" s="72" t="s">
         <v>43</v>
@@ -2368,7 +2365,7 @@
         <v>46</v>
       </c>
       <c r="T18" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U18" s="72" t="s">
         <v>56</v>
@@ -2411,7 +2408,7 @@
         <v>46</v>
       </c>
       <c r="T19" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U19" s="72" t="s">
         <v>56</v>
@@ -2456,7 +2453,7 @@
         <v>60</v>
       </c>
       <c r="T20" s="77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U20" s="72" t="s">
         <v>56</v>
@@ -2501,7 +2498,7 @@
         <v>60</v>
       </c>
       <c r="T21" s="77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U21" s="72" t="s">
         <v>56</v>
@@ -2544,7 +2541,7 @@
         <v>60</v>
       </c>
       <c r="T22" s="77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U22" s="72" t="s">
         <v>56</v>
@@ -3205,30 +3202,30 @@
     </row>
     <row r="50" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
-      <c r="B50" s="133" t="s">
+      <c r="B50" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="134"/>
-      <c r="D50" s="135"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="124"/>
       <c r="E50" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="136"/>
-      <c r="G50" s="136"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
       <c r="H50" s="117" t="s">
         <v>3</v>
       </c>
       <c r="I50" s="118"/>
-      <c r="J50" s="136" t="s">
+      <c r="J50" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="K50" s="136"/>
+      <c r="K50" s="125"/>
       <c r="L50" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="M50" s="136"/>
-      <c r="N50" s="136"/>
-      <c r="O50" s="136"/>
+      <c r="M50" s="125"/>
+      <c r="N50" s="125"/>
+      <c r="O50" s="125"/>
       <c r="P50" s="83" t="s">
         <v>30</v>
       </c>
@@ -3244,217 +3241,217 @@
       <c r="A51" s="35">
         <v>1</v>
       </c>
-      <c r="B51" s="96" t="s">
+      <c r="B51" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="100"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="137" t="s">
+      <c r="C51" s="99"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="138"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="96" t="s">
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="I51" s="97"/>
-      <c r="J51" s="100" t="s">
+      <c r="I51" s="100"/>
+      <c r="J51" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="K51" s="97"/>
-      <c r="L51" s="96" t="s">
+      <c r="K51" s="100"/>
+      <c r="L51" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="M51" s="100"/>
-      <c r="N51" s="100"/>
-      <c r="O51" s="100"/>
+      <c r="M51" s="99"/>
+      <c r="N51" s="99"/>
+      <c r="O51" s="99"/>
       <c r="P51" s="86"/>
       <c r="Q51" s="87"/>
       <c r="R51" s="87"/>
       <c r="S51" s="88"/>
-      <c r="T51" s="92"/>
+      <c r="T51" s="102"/>
       <c r="U51" s="88"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="36">
         <v>2</v>
       </c>
-      <c r="B52" s="98" t="s">
+      <c r="B52" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="93"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="99"/>
-      <c r="J52" s="93" t="s">
+      <c r="C52" s="98"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="K52" s="99"/>
-      <c r="L52" s="98" t="s">
-        <v>69</v>
-      </c>
-      <c r="M52" s="93"/>
-      <c r="N52" s="93"/>
-      <c r="O52" s="93"/>
+      <c r="K52" s="101"/>
+      <c r="L52" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="M52" s="98"/>
+      <c r="N52" s="98"/>
+      <c r="O52" s="98"/>
       <c r="P52" s="89"/>
       <c r="Q52" s="90"/>
       <c r="R52" s="90"/>
       <c r="S52" s="91"/>
-      <c r="T52" s="93"/>
+      <c r="T52" s="98"/>
       <c r="U52" s="91"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="36">
         <v>3</v>
       </c>
-      <c r="B53" s="98"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="98"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="99"/>
-      <c r="L53" s="98"/>
-      <c r="M53" s="93"/>
-      <c r="N53" s="93"/>
-      <c r="O53" s="93"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="101"/>
+      <c r="L53" s="104"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="98"/>
+      <c r="O53" s="98"/>
       <c r="P53" s="89"/>
       <c r="Q53" s="90"/>
       <c r="R53" s="90"/>
       <c r="S53" s="91"/>
-      <c r="T53" s="93"/>
+      <c r="T53" s="98"/>
       <c r="U53" s="91"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="36">
         <v>4</v>
       </c>
-      <c r="B54" s="98"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="106"/>
-      <c r="G54" s="106"/>
-      <c r="H54" s="98"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="93"/>
-      <c r="K54" s="99"/>
-      <c r="L54" s="98"/>
-      <c r="M54" s="93"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="93"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="101"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="101"/>
+      <c r="L54" s="104"/>
+      <c r="M54" s="98"/>
+      <c r="N54" s="98"/>
+      <c r="O54" s="98"/>
       <c r="P54" s="89"/>
       <c r="Q54" s="90"/>
       <c r="R54" s="90"/>
       <c r="S54" s="91"/>
-      <c r="T54" s="93"/>
+      <c r="T54" s="98"/>
       <c r="U54" s="91"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="36">
         <v>5</v>
       </c>
-      <c r="B55" s="98"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="98"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="93"/>
-      <c r="K55" s="99"/>
-      <c r="L55" s="98"/>
-      <c r="M55" s="93"/>
-      <c r="N55" s="93"/>
-      <c r="O55" s="93"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="101"/>
+      <c r="J55" s="98"/>
+      <c r="K55" s="101"/>
+      <c r="L55" s="104"/>
+      <c r="M55" s="98"/>
+      <c r="N55" s="98"/>
+      <c r="O55" s="98"/>
       <c r="P55" s="89"/>
       <c r="Q55" s="90"/>
       <c r="R55" s="90"/>
       <c r="S55" s="91"/>
-      <c r="T55" s="93"/>
+      <c r="T55" s="98"/>
       <c r="U55" s="91"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="36">
         <v>6</v>
       </c>
-      <c r="B56" s="98"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="98"/>
-      <c r="I56" s="99"/>
-      <c r="J56" s="93"/>
-      <c r="K56" s="99"/>
-      <c r="L56" s="98"/>
-      <c r="M56" s="93"/>
-      <c r="N56" s="93"/>
-      <c r="O56" s="93"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="98"/>
+      <c r="K56" s="101"/>
+      <c r="L56" s="104"/>
+      <c r="M56" s="98"/>
+      <c r="N56" s="98"/>
+      <c r="O56" s="98"/>
       <c r="P56" s="89"/>
       <c r="Q56" s="90"/>
       <c r="R56" s="90"/>
       <c r="S56" s="91"/>
-      <c r="T56" s="93"/>
+      <c r="T56" s="98"/>
       <c r="U56" s="91"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="36">
         <v>7</v>
       </c>
-      <c r="B57" s="98"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="98"/>
-      <c r="I57" s="99"/>
-      <c r="J57" s="93"/>
-      <c r="K57" s="99"/>
-      <c r="L57" s="98"/>
-      <c r="M57" s="93"/>
-      <c r="N57" s="93"/>
-      <c r="O57" s="93"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="98"/>
+      <c r="K57" s="101"/>
+      <c r="L57" s="104"/>
+      <c r="M57" s="98"/>
+      <c r="N57" s="98"/>
+      <c r="O57" s="98"/>
       <c r="P57" s="89"/>
       <c r="Q57" s="90"/>
       <c r="R57" s="90"/>
       <c r="S57" s="91"/>
-      <c r="T57" s="93"/>
+      <c r="T57" s="98"/>
       <c r="U57" s="91"/>
     </row>
     <row r="58" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="37">
         <v>8</v>
       </c>
-      <c r="B58" s="104"/>
+      <c r="B58" s="105"/>
       <c r="C58" s="94"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="108"/>
-      <c r="G58" s="108"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="95"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="106"/>
       <c r="J58" s="94"/>
-      <c r="K58" s="95"/>
-      <c r="L58" s="104"/>
+      <c r="K58" s="106"/>
+      <c r="L58" s="105"/>
       <c r="M58" s="94"/>
       <c r="N58" s="94"/>
       <c r="O58" s="94"/>
-      <c r="P58" s="102"/>
-      <c r="Q58" s="103"/>
-      <c r="R58" s="103"/>
-      <c r="S58" s="101"/>
+      <c r="P58" s="96"/>
+      <c r="Q58" s="97"/>
+      <c r="R58" s="97"/>
+      <c r="S58" s="95"/>
       <c r="T58" s="94"/>
-      <c r="U58" s="101"/>
+      <c r="U58" s="95"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
@@ -3542,6 +3539,7 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:H9"/>
+    <mergeCell ref="H51:I51"/>
     <mergeCell ref="C7:R7"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="I9:N9"/>
@@ -3558,6 +3556,7 @@
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
@@ -3574,12 +3573,9 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="L53:O53"/>
     <mergeCell ref="L54:O54"/>
     <mergeCell ref="L55:O55"/>
     <mergeCell ref="B55:D55"/>
-    <mergeCell ref="H51:I51"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="J51:K51"/>
@@ -3589,7 +3585,9 @@
     <mergeCell ref="T51:U51"/>
     <mergeCell ref="T52:U52"/>
     <mergeCell ref="T53:U53"/>
-    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="L53:O53"/>
     <mergeCell ref="T58:U58"/>
     <mergeCell ref="P54:S54"/>
     <mergeCell ref="P55:S55"/>
@@ -3600,7 +3598,6 @@
     <mergeCell ref="T55:U55"/>
     <mergeCell ref="T56:U56"/>
     <mergeCell ref="T57:U57"/>
-    <mergeCell ref="L51:O51"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="T50:U50"/>
     <mergeCell ref="P50:S50"/>
